--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2385.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2385.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.934329628944397</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.897062182426453</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.374848365783691</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.366589546203613</v>
       </c>
       <c r="E1">
-        <v>0.6539593095443703</v>
+        <v>1.457905292510986</v>
       </c>
     </row>
   </sheetData>
